--- a/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>40.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7526</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>008682</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>富国中证红利指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.45</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7526</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161907</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家中证红利指数(LOF)</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>22.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3408</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>13.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004404</t>
+          <t>515690</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平安股息精选沪港深股票C</t>
+          <t>鹏华中证高股息龙头ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>3.89</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>10</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>004403</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>平安股息精选沪港深股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008682</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强C</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004403</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>平安股息精选沪港深股票A</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>98.80</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>97.86</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>515180</t>
+          <t>515890</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达中证红利ETF</t>
+          <t>博时中证红利ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>98.73</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>1.58</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>8</v>
       </c>
     </row>
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>515690</t>
+          <t>004404</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华中证高股息龙头ETF</t>
+          <t>平安股息精选沪港深股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>97.81</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>3.89</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>6</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -912,25 +1072,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>515890</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时中证红利ETF</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
       </c>
     </row>
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161907</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家中证红利指数(LOF)</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>46.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8307</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.42</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515180</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达中证红利ETF</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515690</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华中证高股息龙头ETF</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.85</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>080005</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛量化红利混合</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515890</t>
+          <t>515690</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时中证红利ETF</t>
+          <t>鹏华中证高股息龙头ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>515890</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>博时中证红利ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8841</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1980,4 +1981,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商信用增强债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6284</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1425</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001752</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商信用增强债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5119</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3306</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2681,4 +2682,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2690,7 +2691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2701,17 +2702,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2721,14 +2742,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.21</v>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2737,14 +2780,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>1.08</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="4">
@@ -2753,14 +2886,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.95</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -2769,13 +2902,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2823,7 +2824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,17 +2835,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2854,14 +2875,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -2870,14 +2965,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>5.21</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
@@ -2886,14 +2981,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>1.08</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="5">
@@ -2902,14 +2997,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.95</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
@@ -2918,13 +3013,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2918,7 +2919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2929,17 +2930,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2949,14 +2970,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -2965,14 +3060,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -2981,14 +3076,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>5.21</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -2997,14 +3092,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>1.08</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="6">
@@ -3013,14 +3108,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.95</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7">
@@ -3029,13 +3124,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,11 +489,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0.05</v>
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>5.21</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>1.08</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.95</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.52</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>004209</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>大成智惠量化多策略灵活配置混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0495</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -750,36 +843,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>004209</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>大成智惠量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.70</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0350</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -788,6 +881,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -919,7 +1106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1619,7 +1806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1941,7 +2128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2491,7 +2678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002110-三钢闽光.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -505,11 +506,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0.05</v>
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5.21</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>1.08</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1.95</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.52</v>
       </c>
     </row>
@@ -616,7 +633,993 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7526</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7526</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3408</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -779,100 +1782,6 @@
       </c>
       <c r="H4" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004209</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成智惠量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0495</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -937,36 +1846,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>004209</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>大成智惠量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.70</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0350</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -975,6 +1884,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1106,7 +2109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1806,7 +2809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2128,7 +3131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2676,668 +3679,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>100032</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40.68</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7526</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008682</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>40.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7526</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>090010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3408</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.97</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2207</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1464</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>515690</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华中证高股息龙头ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>97.81</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0918</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004403</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>平安股息精选沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0716</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0676</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>97.86</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>161907</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家中证红利指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004404</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>平安股息精选沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>